--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="140">
   <si>
     <t>anchor score</t>
   </si>
@@ -100,70 +100,70 @@
     <t>avoid</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>better</t>
@@ -799,10 +799,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>0.9145299145299145</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0.8976377952755905</v>
@@ -981,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>0.8793103448275862</v>
@@ -1031,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6">
         <v>0.8532110091743119</v>
@@ -1081,7 +1081,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7">
         <v>0.851063829787234</v>
@@ -1131,7 +1131,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8">
         <v>0.85</v>
@@ -1181,7 +1181,7 @@
         <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>0.8484848484848485</v>
@@ -1231,7 +1231,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>0.8141025641025641</v>
@@ -1281,7 +1281,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>0.8085106382978723</v>
@@ -1331,28 +1331,28 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.762114537444934</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1381,28 +1381,28 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O13">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1431,28 +1431,28 @@
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.7272727272727273</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="N14">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1481,7 +1481,7 @@
         <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>0.7192982456140351</v>
@@ -1531,7 +1531,7 @@
         <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>0.6950354609929078</v>
@@ -1581,7 +1581,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>0.6888888888888889</v>
@@ -1631,28 +1631,28 @@
         <v>259</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.6820987654320988</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L18">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="N18">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1684,25 +1684,25 @@
         <v>48</v>
       </c>
       <c r="K19">
-        <v>0.6808510638297872</v>
+        <v>0.6705882352941176</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1734,25 +1734,25 @@
         <v>49</v>
       </c>
       <c r="K20">
-        <v>0.6705882352941176</v>
+        <v>0.65</v>
       </c>
       <c r="L20">
-        <v>57</v>
+        <v>221</v>
       </c>
       <c r="M20">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1860,25 +1860,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.134453781512605</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="E23">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F23">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>52</v>
@@ -1910,13 +1910,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1313131313131313</v>
+        <v>0.05701754385964912</v>
       </c>
       <c r="C24">
         <v>13</v>
       </c>
       <c r="D24">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E24">
         <v>0.9399999999999999</v>
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>53</v>
@@ -1960,25 +1960,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.05701754385964912</v>
+        <v>0.01388304585612116</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>203</v>
+        <v>763</v>
       </c>
       <c r="E25">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F25">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>215</v>
+        <v>2344</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>54</v>
@@ -2010,25 +2010,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01388304585612116</v>
+        <v>0.01311866428145498</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>763</v>
+        <v>488</v>
       </c>
       <c r="E26">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F26">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2344</v>
+        <v>1655</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>55</v>
@@ -2056,30 +2056,6 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.01311866428145498</v>
-      </c>
-      <c r="C27">
-        <v>22</v>
-      </c>
-      <c r="D27">
-        <v>488</v>
-      </c>
-      <c r="E27">
-        <v>0.95</v>
-      </c>
-      <c r="F27">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1655</v>
-      </c>
       <c r="J27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2159,7 +2135,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K30">
         <v>0.4691358024691358</v>
@@ -3225,7 +3201,7 @@
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K71">
         <v>0.2374756018217306</v>
@@ -3303,7 +3279,7 @@
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K74">
         <v>0.2197076850542197</v>
